--- a/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:11:35+00:00</t>
+    <t>2026-02-24T10:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>FRANCE</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6045" uniqueCount="639">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:44:05+00:00</t>
+    <t>2026-02-24T16:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1379,24 +1379,6 @@
   </si>
   <si>
     <t>Organization.identifier:rppsRang.assigner</t>
-  </si>
-  <si>
-    <t>Organization.identifier:IdNatStruct</t>
-  </si>
-  <si>
-    <t>IdNatStruct</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numSiren</t>
-  </si>
-  <si>
-    <t>numSiren</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numFINESS</t>
-  </si>
-  <si>
-    <t>numFINESS</t>
   </si>
   <si>
     <t>Organization.identifier:numeroTVAIntracommunautaire</t>
@@ -2335,7 +2317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN169"/>
+  <dimension ref="A1:AN166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5252,7 +5234,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>85</v>
@@ -6282,10 +6264,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -8345,7 +8327,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -12690,7 +12672,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>85</v>
@@ -12796,17 +12778,15 @@
         <v>439</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>85</v>
@@ -12818,21 +12798,19 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>75</v>
       </c>
@@ -12880,52 +12858,50 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>75</v>
@@ -12934,21 +12910,21 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>75</v>
       </c>
@@ -12984,19 +12960,19 @@
         <v>75</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13005,34 +12981,32 @@
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
         <v>75</v>
       </c>
@@ -13047,23 +13021,25 @@
         <v>75</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O94" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>75</v>
@@ -13088,13 +13064,13 @@
         <v>75</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>75</v>
@@ -13112,39 +13088,39 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13152,7 +13128,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>85</v>
@@ -13164,19 +13140,23 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>75</v>
       </c>
@@ -13185,7 +13165,7 @@
         <v>75</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>75</v>
+        <v>443</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>75</v>
@@ -13200,13 +13180,13 @@
         <v>75</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>75</v>
+        <v>444</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>75</v>
@@ -13224,7 +13204,7 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13236,13 +13216,13 @@
         <v>75</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>75</v>
@@ -13253,21 +13233,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>75</v>
@@ -13276,21 +13256,23 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>75</v>
       </c>
@@ -13302,7 +13284,7 @@
         <v>75</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>75</v>
@@ -13326,40 +13308,40 @@
         <v>75</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>75</v>
@@ -13367,10 +13349,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13387,26 +13369,24 @@
         <v>75</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>75</v>
       </c>
@@ -13418,7 +13398,7 @@
         <v>75</v>
       </c>
       <c r="T97" t="s" s="2">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="U97" t="s" s="2">
         <v>75</v>
@@ -13430,13 +13410,13 @@
         <v>75</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>75</v>
@@ -13454,7 +13434,7 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -13469,13 +13449,13 @@
         <v>97</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>75</v>
@@ -13483,10 +13463,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13494,7 +13474,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>85</v>
@@ -13509,20 +13489,16 @@
         <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>75</v>
       </c>
@@ -13531,7 +13507,7 @@
         <v>75</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>449</v>
+        <v>75</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>75</v>
@@ -13546,13 +13522,13 @@
         <v>75</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>75</v>
@@ -13570,7 +13546,7 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -13585,13 +13561,13 @@
         <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>75</v>
@@ -13599,10 +13575,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13625,20 +13601,18 @@
         <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>75</v>
       </c>
@@ -13650,7 +13624,7 @@
         <v>75</v>
       </c>
       <c r="T99" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="U99" t="s" s="2">
         <v>75</v>
@@ -13686,7 +13660,7 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -13701,13 +13675,13 @@
         <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>75</v>
@@ -13715,12 +13689,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="D100" t="s" s="2">
         <v>75</v>
       </c>
@@ -13729,7 +13705,7 @@
         <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>75</v>
@@ -13741,18 +13717,18 @@
         <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>75</v>
       </c>
@@ -13764,7 +13740,7 @@
         <v>75</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>75</v>
@@ -13800,39 +13776,39 @@
         <v>75</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>75</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13852,16 +13828,16 @@
         <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>289</v>
+        <v>101</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13912,7 +13888,7 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -13924,16 +13900,16 @@
         <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>292</v>
+        <v>103</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>75</v>
@@ -13941,21 +13917,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>75</v>
@@ -13964,19 +13940,19 @@
         <v>75</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>455</v>
+        <v>106</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>297</v>
+        <v>107</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>299</v>
+        <v>109</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14014,40 +13990,40 @@
         <v>75</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>302</v>
+        <v>103</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>75</v>
@@ -14055,14 +14031,12 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
         <v>75</v>
       </c>
@@ -14071,29 +14045,31 @@
         <v>76</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O103" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>75</v>
@@ -14118,13 +14094,13 @@
         <v>75</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>75</v>
@@ -14142,39 +14118,39 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14182,7 +14158,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>85</v>
@@ -14194,19 +14170,23 @@
         <v>75</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>75</v>
       </c>
@@ -14215,7 +14195,7 @@
         <v>75</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>75</v>
+        <v>456</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>75</v>
@@ -14230,13 +14210,13 @@
         <v>75</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>75</v>
+        <v>444</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>75</v>
@@ -14254,7 +14234,7 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -14266,13 +14246,13 @@
         <v>75</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>75</v>
@@ -14283,21 +14263,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>75</v>
@@ -14306,21 +14286,23 @@
         <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>75</v>
       </c>
@@ -14332,7 +14314,7 @@
         <v>75</v>
       </c>
       <c r="T105" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="U105" t="s" s="2">
         <v>75</v>
@@ -14356,40 +14338,40 @@
         <v>75</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>75</v>
@@ -14397,10 +14379,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14417,26 +14399,24 @@
         <v>75</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>75</v>
       </c>
@@ -14448,7 +14428,7 @@
         <v>75</v>
       </c>
       <c r="T106" t="s" s="2">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="U106" t="s" s="2">
         <v>75</v>
@@ -14460,13 +14440,13 @@
         <v>75</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>75</v>
@@ -14484,7 +14464,7 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -14499,13 +14479,13 @@
         <v>97</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>75</v>
@@ -14513,10 +14493,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14524,7 +14504,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>85</v>
@@ -14539,20 +14519,16 @@
         <v>86</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>75</v>
       </c>
@@ -14561,7 +14537,7 @@
         <v>75</v>
       </c>
       <c r="S107" t="s" s="2">
-        <v>462</v>
+        <v>75</v>
       </c>
       <c r="T107" t="s" s="2">
         <v>75</v>
@@ -14576,13 +14552,13 @@
         <v>75</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>75</v>
@@ -14600,7 +14576,7 @@
         <v>75</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -14615,13 +14591,13 @@
         <v>97</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>75</v>
@@ -14629,10 +14605,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14655,20 +14631,18 @@
         <v>86</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>75</v>
       </c>
@@ -14680,7 +14654,7 @@
         <v>75</v>
       </c>
       <c r="T108" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="U108" t="s" s="2">
         <v>75</v>
@@ -14716,7 +14690,7 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -14731,13 +14705,13 @@
         <v>97</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>75</v>
@@ -14745,10 +14719,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>276</v>
+        <v>461</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14765,28 +14739,32 @@
         <v>75</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>315</v>
+        <v>462</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>278</v>
+        <v>463</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="R109" t="s" s="2">
         <v>75</v>
       </c>
@@ -14794,7 +14772,7 @@
         <v>75</v>
       </c>
       <c r="T109" t="s" s="2">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="U109" t="s" s="2">
         <v>75</v>
@@ -14830,7 +14808,7 @@
         <v>75</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
@@ -14845,24 +14823,24 @@
         <v>97</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>282</v>
+        <v>467</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>283</v>
+        <v>468</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>284</v>
+        <v>469</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>75</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>286</v>
+        <v>471</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14873,7 +14851,7 @@
         <v>76</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>75</v>
@@ -14885,16 +14863,20 @@
         <v>86</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>288</v>
+        <v>472</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>75</v>
       </c>
@@ -14918,37 +14900,35 @@
         <v>75</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>75</v>
+        <v>476</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>75</v>
+        <v>477</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="AC110" s="2"/>
       <c r="AD110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>290</v>
+        <v>471</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>75</v>
@@ -14957,26 +14937,28 @@
         <v>97</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>291</v>
+        <v>479</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>292</v>
+        <v>480</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>75</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="D111" t="s" s="2">
         <v>75</v>
       </c>
@@ -14997,18 +14979,20 @@
         <v>86</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>455</v>
+        <v>253</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>297</v>
+        <v>472</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>298</v>
+        <v>473</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O111" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>75</v>
       </c>
@@ -15032,13 +15016,11 @@
         <v>75</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="Y111" s="2"/>
       <c r="Z111" t="s" s="2">
-        <v>75</v>
+        <v>484</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>75</v>
@@ -15056,13 +15038,13 @@
         <v>75</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>300</v>
+        <v>471</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>75</v>
@@ -15071,24 +15053,24 @@
         <v>97</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>301</v>
+        <v>479</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>302</v>
+        <v>480</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>75</v>
+        <v>481</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15105,32 +15087,26 @@
         <v>75</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>390</v>
+        <v>99</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>468</v>
+        <v>100</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q112" t="s" s="2">
-        <v>472</v>
-      </c>
+      <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
         <v>75</v>
       </c>
@@ -15174,7 +15150,7 @@
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>467</v>
+        <v>102</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -15186,31 +15162,31 @@
         <v>75</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>473</v>
+        <v>75</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>474</v>
+        <v>103</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>475</v>
+        <v>75</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>476</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15226,23 +15202,21 @@
         <v>75</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>478</v>
+        <v>107</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>479</v>
+        <v>108</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>75</v>
       </c>
@@ -15266,21 +15240,23 @@
         <v>75</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>482</v>
+        <v>75</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>483</v>
+        <v>75</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AC113" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="AD113" t="s" s="2">
         <v>75</v>
       </c>
@@ -15288,7 +15264,7 @@
         <v>112</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>477</v>
+        <v>113</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
@@ -15300,37 +15276,35 @@
         <v>75</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>485</v>
+        <v>75</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>486</v>
+        <v>103</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>487</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>85</v>
@@ -15345,19 +15319,19 @@
         <v>86</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>478</v>
+        <v>343</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>479</v>
+        <v>344</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>481</v>
+        <v>346</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>75</v>
@@ -15382,11 +15356,13 @@
         <v>75</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="Y114" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z114" t="s" s="2">
-        <v>490</v>
+        <v>75</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>75</v>
@@ -15404,7 +15380,7 @@
         <v>75</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>477</v>
+        <v>347</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -15419,16 +15395,16 @@
         <v>97</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>485</v>
+        <v>348</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>486</v>
+        <v>349</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>487</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115">
@@ -15685,19 +15661,19 @@
         <v>86</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>75</v>
@@ -15746,13 +15722,13 @@
         <v>75</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>75</v>
@@ -15761,10 +15737,10 @@
         <v>97</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>75</v>
@@ -15798,18 +15774,20 @@
         <v>75</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>100</v>
+        <v>366</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>75</v>
@@ -15858,7 +15836,7 @@
         <v>75</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>102</v>
+        <v>369</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
@@ -15870,13 +15848,13 @@
         <v>75</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>103</v>
+        <v>371</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>75</v>
@@ -15894,14 +15872,14 @@
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>75</v>
@@ -15910,21 +15888,21 @@
         <v>75</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>107</v>
+        <v>501</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O119" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>75</v>
       </c>
@@ -15960,37 +15938,37 @@
         <v>75</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AC119" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AD119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>103</v>
+        <v>379</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>75</v>
@@ -16001,10 +15979,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16012,7 +15990,7 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>85</v>
@@ -16027,19 +16005,17 @@
         <v>86</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>75</v>
@@ -16088,7 +16064,7 @@
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>76</v>
@@ -16103,10 +16079,10 @@
         <v>97</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>75</v>
@@ -16117,10 +16093,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16143,18 +16119,20 @@
         <v>86</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>75</v>
       </c>
@@ -16202,7 +16180,7 @@
         <v>75</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>76</v>
@@ -16217,10 +16195,10 @@
         <v>97</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>75</v>
@@ -16231,10 +16209,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16257,17 +16235,19 @@
         <v>86</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>507</v>
+        <v>400</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O122" t="s" s="2">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>75</v>
@@ -16316,7 +16296,7 @@
         <v>75</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>76</v>
@@ -16331,10 +16311,10 @@
         <v>97</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>75</v>
@@ -16348,9 +16328,11 @@
         <v>508</v>
       </c>
       <c r="B123" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C123" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
         <v>75</v>
       </c>
@@ -16371,17 +16353,19 @@
         <v>86</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>382</v>
+        <v>510</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N123" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O123" t="s" s="2">
-        <v>384</v>
+        <v>475</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>75</v>
@@ -16406,13 +16390,11 @@
         <v>75</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>75</v>
+        <v>511</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>75</v>
@@ -16430,13 +16412,13 @@
         <v>75</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>385</v>
+        <v>471</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>75</v>
@@ -16445,24 +16427,24 @@
         <v>97</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>387</v>
+        <v>480</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>75</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16482,23 +16464,19 @@
         <v>75</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>390</v>
+        <v>99</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>391</v>
+        <v>100</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>75</v>
       </c>
@@ -16546,7 +16524,7 @@
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>395</v>
+        <v>102</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>76</v>
@@ -16558,13 +16536,13 @@
         <v>75</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>396</v>
+        <v>75</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>397</v>
+        <v>103</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>75</v>
@@ -16575,21 +16553,21 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>75</v>
@@ -16598,23 +16576,21 @@
         <v>75</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>400</v>
+        <v>107</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>401</v>
+        <v>108</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>75</v>
       </c>
@@ -16650,37 +16626,37 @@
         <v>75</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>404</v>
+        <v>113</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>405</v>
+        <v>75</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>406</v>
+        <v>103</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>75</v>
@@ -16694,17 +16670,15 @@
         <v>514</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>85</v>
@@ -16719,19 +16693,19 @@
         <v>86</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>516</v>
+        <v>343</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>479</v>
+        <v>344</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>481</v>
+        <v>346</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>75</v>
@@ -16756,11 +16730,13 @@
         <v>75</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="Y126" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z126" t="s" s="2">
-        <v>517</v>
+        <v>75</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>75</v>
@@ -16778,7 +16754,7 @@
         <v>75</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>477</v>
+        <v>347</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>76</v>
@@ -16793,21 +16769,21 @@
         <v>97</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>485</v>
+        <v>348</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>486</v>
+        <v>349</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>487</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>492</v>
@@ -16919,7 +16895,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>494</v>
@@ -17033,7 +17009,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>496</v>
@@ -17059,19 +17035,19 @@
         <v>86</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>75</v>
@@ -17120,13 +17096,13 @@
         <v>75</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>75</v>
@@ -17135,10 +17111,10 @@
         <v>97</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>75</v>
@@ -17149,7 +17125,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>498</v>
@@ -17172,18 +17148,20 @@
         <v>75</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>100</v>
+        <v>366</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>75</v>
@@ -17232,7 +17210,7 @@
         <v>75</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>102</v>
+        <v>369</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>76</v>
@@ -17244,13 +17222,13 @@
         <v>75</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>103</v>
+        <v>371</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>75</v>
@@ -17261,21 +17239,21 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>500</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>75</v>
@@ -17284,21 +17262,21 @@
         <v>75</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>107</v>
+        <v>501</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>75</v>
       </c>
@@ -17334,37 +17312,37 @@
         <v>75</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AC131" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AD131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>103</v>
+        <v>379</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>75</v>
@@ -17375,10 +17353,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17386,7 +17364,7 @@
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>85</v>
@@ -17401,19 +17379,17 @@
         <v>86</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>75</v>
@@ -17462,7 +17438,7 @@
         <v>75</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>76</v>
@@ -17477,10 +17453,10 @@
         <v>97</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>75</v>
@@ -17491,10 +17467,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17517,18 +17493,20 @@
         <v>86</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O133" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P133" t="s" s="2">
         <v>75</v>
       </c>
@@ -17576,7 +17554,7 @@
         <v>75</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>76</v>
@@ -17591,10 +17569,10 @@
         <v>97</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>75</v>
@@ -17605,10 +17583,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17631,17 +17609,19 @@
         <v>86</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>507</v>
+        <v>400</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O134" t="s" s="2">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>75</v>
@@ -17690,7 +17670,7 @@
         <v>75</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>76</v>
@@ -17705,10 +17685,10 @@
         <v>97</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>75</v>
@@ -17719,12 +17699,14 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C135" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="D135" t="s" s="2">
         <v>75</v>
       </c>
@@ -17745,17 +17727,19 @@
         <v>86</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>382</v>
+        <v>525</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O135" t="s" s="2">
-        <v>384</v>
+        <v>475</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>75</v>
@@ -17780,13 +17764,11 @@
         <v>75</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="Y135" s="2"/>
       <c r="Z135" t="s" s="2">
-        <v>75</v>
+        <v>526</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>75</v>
@@ -17804,13 +17786,13 @@
         <v>75</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>385</v>
+        <v>471</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>75</v>
@@ -17819,16 +17801,16 @@
         <v>97</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>387</v>
+        <v>480</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>75</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136">
@@ -17836,7 +17818,7 @@
         <v>527</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17856,23 +17838,19 @@
         <v>75</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>390</v>
+        <v>99</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>391</v>
+        <v>100</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>75</v>
       </c>
@@ -17920,7 +17898,7 @@
         <v>75</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>395</v>
+        <v>102</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>76</v>
@@ -17932,13 +17910,13 @@
         <v>75</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>396</v>
+        <v>75</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>397</v>
+        <v>103</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>75</v>
@@ -17952,18 +17930,18 @@
         <v>528</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>75</v>
@@ -17972,23 +17950,21 @@
         <v>75</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>400</v>
+        <v>107</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>401</v>
+        <v>108</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>75</v>
       </c>
@@ -18024,37 +18000,37 @@
         <v>75</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>404</v>
+        <v>113</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>405</v>
+        <v>75</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>406</v>
+        <v>103</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>75</v>
@@ -18068,17 +18044,15 @@
         <v>529</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>85</v>
@@ -18093,19 +18067,19 @@
         <v>86</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>531</v>
+        <v>343</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>479</v>
+        <v>344</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>481</v>
+        <v>346</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>75</v>
@@ -18130,11 +18104,13 @@
         <v>75</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="Y138" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z138" t="s" s="2">
-        <v>532</v>
+        <v>75</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>75</v>
@@ -18152,7 +18128,7 @@
         <v>75</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>477</v>
+        <v>347</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>76</v>
@@ -18167,21 +18143,21 @@
         <v>97</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>485</v>
+        <v>348</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>486</v>
+        <v>349</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>487</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>492</v>
@@ -18293,7 +18269,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>494</v>
@@ -18407,7 +18383,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>496</v>
@@ -18433,19 +18409,19 @@
         <v>86</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>75</v>
@@ -18494,13 +18470,13 @@
         <v>75</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>75</v>
@@ -18509,10 +18485,10 @@
         <v>97</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>75</v>
@@ -18523,7 +18499,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>498</v>
@@ -18546,18 +18522,20 @@
         <v>75</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>100</v>
+        <v>366</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N142" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>75</v>
@@ -18606,7 +18584,7 @@
         <v>75</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>102</v>
+        <v>369</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>76</v>
@@ -18618,13 +18596,13 @@
         <v>75</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>103</v>
+        <v>371</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>75</v>
@@ -18635,21 +18613,21 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>500</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>75</v>
@@ -18658,21 +18636,21 @@
         <v>75</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>107</v>
+        <v>501</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O143" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P143" t="s" s="2">
         <v>75</v>
       </c>
@@ -18708,37 +18686,37 @@
         <v>75</v>
       </c>
       <c r="AB143" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AC143" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AD143" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>103</v>
+        <v>379</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>75</v>
@@ -18749,10 +18727,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18760,7 +18738,7 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>85</v>
@@ -18775,19 +18753,17 @@
         <v>86</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>75</v>
@@ -18836,7 +18812,7 @@
         <v>75</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>76</v>
@@ -18851,10 +18827,10 @@
         <v>97</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>75</v>
@@ -18865,10 +18841,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -18891,18 +18867,20 @@
         <v>86</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O145" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P145" t="s" s="2">
         <v>75</v>
       </c>
@@ -18950,7 +18928,7 @@
         <v>75</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>76</v>
@@ -18965,10 +18943,10 @@
         <v>97</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>75</v>
@@ -18979,10 +18957,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19005,17 +18983,19 @@
         <v>86</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>507</v>
+        <v>400</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N146" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O146" t="s" s="2">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>75</v>
@@ -19064,7 +19044,7 @@
         <v>75</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>76</v>
@@ -19079,10 +19059,10 @@
         <v>97</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>75</v>
@@ -19093,10 +19073,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19104,7 +19084,7 @@
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>85</v>
@@ -19122,14 +19102,16 @@
         <v>99</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>382</v>
+        <v>539</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N147" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="O147" t="s" s="2">
-        <v>384</v>
+        <v>542</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>75</v>
@@ -19178,7 +19160,7 @@
         <v>75</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>385</v>
+        <v>538</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>76</v>
@@ -19187,19 +19169,19 @@
         <v>85</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>386</v>
+        <v>543</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>387</v>
+        <v>544</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>75</v>
+        <v>545</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>75</v>
@@ -19207,10 +19189,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19230,22 +19212,22 @@
         <v>75</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>390</v>
+        <v>99</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>391</v>
+        <v>547</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>392</v>
+        <v>548</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>393</v>
+        <v>549</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>394</v>
+        <v>550</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>75</v>
@@ -19294,13 +19276,13 @@
         <v>75</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>395</v>
+        <v>546</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>75</v>
@@ -19309,10 +19291,10 @@
         <v>97</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>396</v>
+        <v>75</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>397</v>
+        <v>544</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>75</v>
@@ -19323,10 +19305,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19337,7 +19319,7 @@
         <v>76</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>75</v>
@@ -19346,22 +19328,22 @@
         <v>75</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>99</v>
+        <v>552</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>400</v>
+        <v>553</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>401</v>
+        <v>554</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>402</v>
+        <v>555</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>403</v>
+        <v>556</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>75</v>
@@ -19410,28 +19392,28 @@
         <v>75</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>404</v>
+        <v>551</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>97</v>
+        <v>557</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>405</v>
+        <v>558</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>406</v>
+        <v>559</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>75</v>
+        <v>560</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>75</v>
@@ -19439,10 +19421,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19450,7 +19432,7 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>85</v>
@@ -19462,22 +19444,22 @@
         <v>75</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>99</v>
+        <v>562</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>75</v>
@@ -19526,28 +19508,28 @@
         <v>75</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>97</v>
+        <v>567</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>75</v>
@@ -19555,10 +19537,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19578,22 +19560,20 @@
         <v>75</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>99</v>
+        <v>572</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>75</v>
@@ -19642,13 +19622,13 @@
         <v>75</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>75</v>
@@ -19657,13 +19637,13 @@
         <v>97</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>75</v>
+        <v>467</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>75</v>
@@ -19671,10 +19651,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19685,7 +19665,7 @@
         <v>76</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>75</v>
@@ -19697,20 +19677,16 @@
         <v>75</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>558</v>
+        <v>99</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>559</v>
+        <v>100</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
         <v>75</v>
       </c>
@@ -19758,28 +19734,28 @@
         <v>75</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>557</v>
+        <v>102</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>563</v>
+        <v>75</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>564</v>
+        <v>75</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>565</v>
+        <v>103</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>566</v>
+        <v>75</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>75</v>
@@ -19787,21 +19763,21 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>75</v>
@@ -19813,20 +19789,18 @@
         <v>75</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>568</v>
+        <v>106</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>569</v>
+        <v>107</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>570</v>
+        <v>108</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>75</v>
       </c>
@@ -19862,19 +19836,19 @@
         <v>75</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AD153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>567</v>
+        <v>113</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>76</v>
@@ -19883,19 +19857,19 @@
         <v>77</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>573</v>
+        <v>114</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>574</v>
+        <v>75</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>575</v>
+        <v>103</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>576</v>
+        <v>75</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>75</v>
@@ -19903,10 +19877,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -19929,18 +19903,18 @@
         <v>86</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>578</v>
+        <v>99</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N154" s="2"/>
-      <c r="O154" t="s" s="2">
         <v>581</v>
       </c>
+      <c r="N154" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
         <v>75</v>
       </c>
@@ -19988,7 +19962,7 @@
         <v>75</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>76</v>
@@ -19997,19 +19971,19 @@
         <v>85</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>75</v>
+        <v>584</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>473</v>
+        <v>75</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>582</v>
+        <v>188</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>75</v>
@@ -20017,10 +19991,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20040,18 +20014,20 @@
         <v>75</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>100</v>
+        <v>586</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N155" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
         <v>75</v>
@@ -20076,13 +20052,11 @@
         <v>75</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="Y155" s="2"/>
       <c r="Z155" t="s" s="2">
-        <v>75</v>
+        <v>484</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>75</v>
@@ -20100,7 +20074,7 @@
         <v>75</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>102</v>
+        <v>589</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>76</v>
@@ -20112,13 +20086,13 @@
         <v>75</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>75</v>
@@ -20129,21 +20103,21 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>75</v>
@@ -20152,19 +20126,19 @@
         <v>75</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>107</v>
+        <v>591</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>108</v>
+        <v>592</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>109</v>
+        <v>593</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
@@ -20202,37 +20176,37 @@
         <v>75</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AC156" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AD156" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>113</v>
+        <v>594</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>103</v>
+        <v>595</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>75</v>
@@ -20243,10 +20217,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20272,13 +20246,13 @@
         <v>99</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -20328,7 +20302,7 @@
         <v>75</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>76</v>
@@ -20337,7 +20311,7 @@
         <v>85</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>590</v>
+        <v>75</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>97</v>
@@ -20357,10 +20331,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20371,7 +20345,7 @@
         <v>76</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>75</v>
@@ -20380,21 +20354,23 @@
         <v>75</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>127</v>
+        <v>602</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O158" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="O158" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="P158" t="s" s="2">
         <v>75</v>
       </c>
@@ -20418,11 +20394,13 @@
         <v>75</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="Y158" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z158" t="s" s="2">
-        <v>490</v>
+        <v>75</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>75</v>
@@ -20440,13 +20418,13 @@
         <v>75</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>75</v>
@@ -20458,7 +20436,7 @@
         <v>75</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>188</v>
+        <v>607</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>75</v>
@@ -20469,10 +20447,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20492,20 +20470,18 @@
         <v>75</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>597</v>
+        <v>100</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
         <v>75</v>
@@ -20554,7 +20530,7 @@
         <v>75</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>600</v>
+        <v>102</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>76</v>
@@ -20566,13 +20542,13 @@
         <v>75</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>601</v>
+        <v>103</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>75</v>
@@ -20583,21 +20559,21 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>75</v>
@@ -20606,19 +20582,19 @@
         <v>75</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>603</v>
+        <v>107</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>604</v>
+        <v>108</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>605</v>
+        <v>109</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -20668,25 +20644,25 @@
         <v>75</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>606</v>
+        <v>113</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>75</v>
@@ -20697,14 +20673,14 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>75</v>
+        <v>611</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
@@ -20717,25 +20693,25 @@
         <v>75</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>608</v>
+        <v>106</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>611</v>
+        <v>109</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>612</v>
+        <v>217</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>75</v>
@@ -20784,7 +20760,7 @@
         <v>75</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>76</v>
@@ -20796,13 +20772,13 @@
         <v>75</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>613</v>
+        <v>188</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>75</v>
@@ -20813,10 +20789,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20839,16 +20815,18 @@
         <v>75</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>100</v>
+        <v>616</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>101</v>
+        <v>617</v>
       </c>
       <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
+      <c r="O162" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="P162" t="s" s="2">
         <v>75</v>
       </c>
@@ -20872,13 +20850,13 @@
         <v>75</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>75</v>
+        <v>619</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>75</v>
+        <v>620</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>75</v>
@@ -20896,7 +20874,7 @@
         <v>75</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>102</v>
+        <v>615</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>76</v>
@@ -20908,13 +20886,13 @@
         <v>75</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>75</v>
@@ -20925,21 +20903,21 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>75</v>
@@ -20951,18 +20929,18 @@
         <v>75</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>106</v>
+        <v>623</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>107</v>
+        <v>624</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O163" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="N163" s="2"/>
+      <c r="O163" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="P163" t="s" s="2">
         <v>75</v>
       </c>
@@ -21010,25 +20988,25 @@
         <v>75</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>113</v>
+        <v>622</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>75</v>
+        <v>627</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>103</v>
+        <v>628</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>75</v>
@@ -21039,14 +21017,14 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>617</v>
+        <v>75</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
@@ -21059,25 +21037,23 @@
         <v>75</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>106</v>
+        <v>552</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>618</v>
+        <v>553</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>217</v>
+        <v>630</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>75</v>
@@ -21126,7 +21102,7 @@
         <v>75</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>76</v>
@@ -21135,19 +21111,19 @@
         <v>77</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>114</v>
+        <v>631</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>75</v>
+        <v>558</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>188</v>
+        <v>559</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>75</v>
+        <v>560</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>75</v>
@@ -21155,10 +21131,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21181,17 +21157,19 @@
         <v>75</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>253</v>
+        <v>562</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>622</v>
+        <v>563</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N165" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O165" t="s" s="2">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>75</v>
@@ -21216,13 +21194,13 @@
         <v>75</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>625</v>
+        <v>75</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>626</v>
+        <v>75</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>75</v>
@@ -21240,7 +21218,7 @@
         <v>75</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>76</v>
@@ -21249,19 +21227,19 @@
         <v>85</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>75</v>
+        <v>568</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>627</v>
+        <v>569</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>75</v>
+        <v>570</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>75</v>
@@ -21269,10 +21247,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21283,7 +21261,7 @@
         <v>76</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>75</v>
@@ -21295,17 +21273,17 @@
         <v>75</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>75</v>
@@ -21354,13 +21332,13 @@
         <v>75</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>75</v>
@@ -21369,359 +21347,15 @@
         <v>97</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>633</v>
+        <v>75</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>634</v>
+        <v>103</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E167" s="2"/>
-      <c r="F167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G167" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K167" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N167" s="2"/>
-      <c r="O167" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="P167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q167" s="2"/>
-      <c r="R167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AG167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH167" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI167" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AJ167" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AN167" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E168" s="2"/>
-      <c r="F168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G168" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="P168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q168" s="2"/>
-      <c r="R168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI168" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AL168" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AM168" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AN168" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E169" s="2"/>
-      <c r="F169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N169" s="2"/>
-      <c r="O169" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="P169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q169" s="2"/>
-      <c r="R169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL169" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN169" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:15:31+00:00</t>
+    <t>2026-02-25T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:31:26+00:00</t>
+    <t>2026-02-25T08:48:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:48:17+00:00</t>
+    <t>2026-02-26T17:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-organization-ej.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-26T17:10:09+00:00</t>
+    <t>2026-02-27T10:05:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
